--- a/testing/retrasst/is-query-correct/out.xlsx
+++ b/testing/retrasst/is-query-correct/out.xlsx
@@ -1121,10 +1121,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:U1676"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1139,7 @@
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="3.85546875" customWidth="1"/>
     <col min="12" max="12" width="4.7109375" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
@@ -110031,6 +110034,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>